--- a/franceelite/classement.xlsx
+++ b/franceelite/classement.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Documents/FFCK/ffck.github.io/franceelite/"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'500m'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -572,14 +573,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -588,6 +581,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1091,97 +1092,97 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1505,2998 +1506,2998 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="33" style="32" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="28.796875" style="32" customWidth="1"/>
-    <col min="6" max="8" width="10.59765625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="33" style="29" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="28.796875" style="29" customWidth="1"/>
+    <col min="6" max="8" width="10.59765625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="48">
         <v>1999</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="46">
         <v>0</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="46">
         <v>2</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="47">
         <f t="shared" ref="H3:H18" si="0">F3+G3</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39">
+      <c r="A4" s="33">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="49">
         <v>2000</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="34">
         <v>4</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="34">
         <v>0</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="35">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39">
+      <c r="A5" s="33">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="49">
         <v>2000</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="40" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="34">
         <v>2</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="34">
         <v>4</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39">
+      <c r="A6" s="33">
         <v>4</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="49">
         <v>1999</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="34">
         <v>5</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="34">
         <v>3</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39">
+      <c r="A7" s="33">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="49">
         <v>1999</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="40" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="34">
         <v>3</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="34">
         <v>6</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="35">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39">
+      <c r="A8" s="33">
         <v>6</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="49">
         <v>1999</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="34">
         <v>6</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="34">
         <v>5</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="35">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39">
+      <c r="A9" s="33">
         <v>7</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="49">
         <v>2000</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="40" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="34">
         <v>7</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="34">
         <v>8</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="35">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="50">
         <v>1999</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="43" t="s">
+      <c r="D10" s="50"/>
+      <c r="E10" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="37">
         <v>9</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="37">
         <v>7</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="50">
         <v>2000</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="50"/>
+      <c r="E11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="37">
         <v>8</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="37">
         <v>9</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="50">
         <v>2001</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="43" t="s">
+      <c r="D12" s="50"/>
+      <c r="E12" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="37">
         <v>10</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="37">
         <v>10</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42">
+      <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="50">
         <v>2000</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="50"/>
+      <c r="E13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="37">
         <v>11</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="37">
         <v>12</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="50">
         <v>2000</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="43" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="37">
         <v>15</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="37">
         <v>11</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="38">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42">
+      <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="50">
         <v>2000</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="43" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="37">
         <v>14</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="37">
         <v>13</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="38">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42">
+      <c r="A16" s="36">
         <v>14</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="50">
         <v>2000</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="43" t="s">
+      <c r="D16" s="50"/>
+      <c r="E16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="37">
         <v>13</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="37">
         <v>14</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="38">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42">
+      <c r="A17" s="36">
         <v>15</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="50">
         <v>2000</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="43" t="s">
+      <c r="D17" s="50"/>
+      <c r="E17" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="37">
         <v>12</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="37">
         <v>15</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="38">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="A18" s="39">
         <v>16</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="51">
         <v>2000</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="46" t="s">
+      <c r="D18" s="51"/>
+      <c r="E18" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="40">
         <v>16</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="40">
         <v>16</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="49" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51">
+      <c r="A22" s="45">
         <v>1</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="48">
         <v>1982</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="52" t="s">
+      <c r="D22" s="48"/>
+      <c r="E22" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="46">
         <v>0</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="46">
         <v>0</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="47">
         <f t="shared" ref="H22:H36" si="1">F22+G22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39">
+      <c r="A23" s="33">
         <v>2</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="49">
         <v>1988</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="40" t="s">
+      <c r="D23" s="49"/>
+      <c r="E23" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="34">
         <v>2</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="34">
         <v>2</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="35">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39">
+      <c r="A24" s="33">
         <v>3</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="49">
         <v>1984</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="40" t="s">
+      <c r="D24" s="49"/>
+      <c r="E24" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="34">
         <v>4</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="34">
         <v>3</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="35">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39">
+      <c r="A25" s="33">
         <v>4</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="49">
         <v>1993</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="40" t="s">
+      <c r="D25" s="49"/>
+      <c r="E25" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="34">
         <v>3</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="34">
         <v>5</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="35">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39">
+      <c r="A26" s="33">
         <v>5</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="49">
         <v>1982</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="40" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="34">
         <v>5</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="34">
         <v>4</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="35">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39">
+      <c r="A27" s="33">
         <v>6</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="49">
         <v>1995</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="40" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="34">
         <v>6</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="34">
         <v>6</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="35">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39">
+      <c r="A28" s="33">
         <v>7</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="49">
         <v>1989</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="40" t="s">
+      <c r="D28" s="49"/>
+      <c r="E28" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="34">
         <v>7</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="34">
         <v>7</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="35">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39">
+      <c r="A29" s="33">
         <v>8</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="49">
         <v>1996</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="40" t="s">
+      <c r="D29" s="49"/>
+      <c r="E29" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="34">
         <v>9</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="34">
         <v>8</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="35">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39">
+      <c r="A30" s="33">
         <v>9</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="49">
         <v>1993</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="40" t="s">
+      <c r="D30" s="49"/>
+      <c r="E30" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="34">
         <v>8</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="34">
         <v>9</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="35">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39">
+      <c r="A31" s="33">
         <v>10</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="49">
         <v>1994</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="40" t="s">
+      <c r="D31" s="49"/>
+      <c r="E31" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="34">
         <v>10</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="34">
         <v>10</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H31" s="35">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39">
+      <c r="A32" s="33">
         <v>11</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="49">
         <v>1995</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="40" t="s">
+      <c r="D32" s="49"/>
+      <c r="E32" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="34">
         <v>11</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="34">
         <v>11</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="35">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42">
+      <c r="A33" s="36">
         <v>12</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="50">
         <v>1994</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="43" t="s">
+      <c r="D33" s="50"/>
+      <c r="E33" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="37">
         <v>13</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G33" s="37">
         <v>12</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33" s="38">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42">
+      <c r="A34" s="36">
         <v>13</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="50">
         <v>1997</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="43" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="37">
         <v>12</v>
       </c>
-      <c r="G34" s="43">
+      <c r="G34" s="37">
         <v>14</v>
       </c>
-      <c r="H34" s="44">
+      <c r="H34" s="38">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="42">
+      <c r="A35" s="36">
         <v>14</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="50">
         <v>1995</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="43" t="s">
+      <c r="D35" s="50"/>
+      <c r="E35" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="37">
         <v>14</v>
       </c>
-      <c r="G35" s="43">
+      <c r="G35" s="37">
         <v>13</v>
       </c>
-      <c r="H35" s="44">
+      <c r="H35" s="38">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45">
+      <c r="A36" s="39">
         <v>15</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="51">
         <v>1997</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="46" t="s">
+      <c r="D36" s="51"/>
+      <c r="E36" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="40">
         <v>15</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="40">
         <v>15</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="41">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="59"/>
     </row>
     <row r="39" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="49" t="s">
+      <c r="G39" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="50" t="s">
+      <c r="H39" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="36">
+      <c r="A40" s="30">
         <v>1</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="31">
         <v>1999</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="31">
         <v>0</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="31">
         <v>0</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="32">
         <f t="shared" ref="H40:H54" si="2">G40+F40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39">
+      <c r="A41" s="33">
         <v>2</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="34">
         <v>1999</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="34">
         <v>2</v>
       </c>
-      <c r="G41" s="40">
+      <c r="G41" s="34">
         <v>2</v>
       </c>
-      <c r="H41" s="41">
+      <c r="H41" s="35">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="39">
+      <c r="A42" s="33">
         <v>3</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="40">
+      <c r="C42" s="34">
         <v>1999</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="40">
+      <c r="F42" s="34">
         <v>3</v>
       </c>
-      <c r="G42" s="40">
+      <c r="G42" s="34">
         <v>3</v>
       </c>
-      <c r="H42" s="41">
+      <c r="H42" s="35">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39">
+      <c r="A43" s="33">
         <v>4</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="34">
         <v>2000</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="40">
+      <c r="F43" s="34">
         <v>5</v>
       </c>
-      <c r="G43" s="40">
+      <c r="G43" s="34">
         <v>4</v>
       </c>
-      <c r="H43" s="41">
+      <c r="H43" s="35">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="39">
+      <c r="A44" s="33">
         <v>5</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="40">
+      <c r="C44" s="34">
         <v>1999</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="34">
         <v>6</v>
       </c>
-      <c r="G44" s="40">
+      <c r="G44" s="34">
         <v>5</v>
       </c>
-      <c r="H44" s="41">
+      <c r="H44" s="35">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39">
+      <c r="A45" s="33">
         <v>6</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="34">
         <v>2000</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F45" s="40">
+      <c r="F45" s="34">
         <v>4</v>
       </c>
-      <c r="G45" s="40">
+      <c r="G45" s="34">
         <v>7</v>
       </c>
-      <c r="H45" s="41">
+      <c r="H45" s="35">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="42">
+      <c r="A46" s="36">
         <v>7</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="37">
         <v>1999</v>
       </c>
-      <c r="D46" s="43" t="s">
+      <c r="D46" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F46" s="37">
         <v>9</v>
       </c>
-      <c r="G46" s="43">
+      <c r="G46" s="37">
         <v>6</v>
       </c>
-      <c r="H46" s="44">
+      <c r="H46" s="38">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="42">
+      <c r="A47" s="36">
         <v>8</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="37">
         <v>2000</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F47" s="37">
         <v>7</v>
       </c>
-      <c r="G47" s="43">
+      <c r="G47" s="37">
         <v>8</v>
       </c>
-      <c r="H47" s="44">
+      <c r="H47" s="38">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="42">
+      <c r="A48" s="36">
         <v>9</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="37">
         <v>1999</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F48" s="37">
         <v>10</v>
       </c>
-      <c r="G48" s="43">
+      <c r="G48" s="37">
         <v>9</v>
       </c>
-      <c r="H48" s="44">
+      <c r="H48" s="38">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="42">
+      <c r="A49" s="36">
         <v>10</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="37">
         <v>1999</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="43">
+      <c r="F49" s="37">
         <v>8</v>
       </c>
-      <c r="G49" s="43">
+      <c r="G49" s="37">
         <v>11</v>
       </c>
-      <c r="H49" s="44">
+      <c r="H49" s="38">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="42">
+      <c r="A50" s="36">
         <v>11</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="37">
         <v>1999</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F50" s="43">
+      <c r="F50" s="37">
         <v>11</v>
       </c>
-      <c r="G50" s="43">
+      <c r="G50" s="37">
         <v>10</v>
       </c>
-      <c r="H50" s="44">
+      <c r="H50" s="38">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="42">
+      <c r="A51" s="36">
         <v>12</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="43">
+      <c r="C51" s="37">
         <v>2001</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="43">
+      <c r="F51" s="37">
         <v>12</v>
       </c>
-      <c r="G51" s="43">
+      <c r="G51" s="37">
         <v>12</v>
       </c>
-      <c r="H51" s="44">
+      <c r="H51" s="38">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="42">
+      <c r="A52" s="36">
         <v>13</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="43">
+      <c r="C52" s="37">
         <v>2000</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="43">
+      <c r="F52" s="37">
         <v>13</v>
       </c>
-      <c r="G52" s="43">
+      <c r="G52" s="37">
         <v>13</v>
       </c>
-      <c r="H52" s="44">
+      <c r="H52" s="38">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="42">
+      <c r="A53" s="36">
         <v>14</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="43">
+      <c r="C53" s="37">
         <v>1999</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="43">
+      <c r="F53" s="37">
         <v>14</v>
       </c>
-      <c r="G53" s="43">
+      <c r="G53" s="37">
         <v>14</v>
       </c>
-      <c r="H53" s="44">
+      <c r="H53" s="38">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45">
+      <c r="A54" s="39">
         <v>15</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="40">
         <v>2001</v>
       </c>
-      <c r="D54" s="46" t="s">
+      <c r="D54" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="E54" s="46" t="s">
+      <c r="E54" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="46">
+      <c r="F54" s="40">
         <v>15</v>
       </c>
-      <c r="G54" s="46">
+      <c r="G54" s="40">
         <v>15</v>
       </c>
-      <c r="H54" s="47">
+      <c r="H54" s="41">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="35"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="59"/>
     </row>
     <row r="57" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="49" t="s">
+      <c r="F57" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G57" s="49" t="s">
+      <c r="G57" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="H57" s="50" t="s">
+      <c r="H57" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="36">
+      <c r="A58" s="30">
         <v>1</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="37">
+      <c r="C58" s="31">
         <v>1980</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="E58" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="31">
         <v>2</v>
       </c>
-      <c r="G58" s="37">
+      <c r="G58" s="31">
         <v>0</v>
       </c>
-      <c r="H58" s="38">
+      <c r="H58" s="32">
         <f t="shared" ref="H58:H67" si="3">G58+F58</f>
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="39">
+      <c r="A59" s="33">
         <v>2</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="40">
+      <c r="C59" s="34">
         <v>1991</v>
       </c>
-      <c r="D59" s="40" t="s">
+      <c r="D59" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="40">
+      <c r="F59" s="34">
         <v>0</v>
       </c>
-      <c r="G59" s="40">
+      <c r="G59" s="34">
         <v>3</v>
       </c>
-      <c r="H59" s="41">
+      <c r="H59" s="35">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="39">
+      <c r="A60" s="33">
         <v>3</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="40">
+      <c r="C60" s="34">
         <v>1991</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="D60" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E60" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="40">
+      <c r="F60" s="34">
         <v>3</v>
       </c>
-      <c r="G60" s="40">
+      <c r="G60" s="34">
         <v>2</v>
       </c>
-      <c r="H60" s="41">
+      <c r="H60" s="35">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="39">
+      <c r="A61" s="33">
         <v>4</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="40">
+      <c r="C61" s="34">
         <v>1996</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E61" s="40" t="s">
+      <c r="E61" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="40">
+      <c r="F61" s="34">
         <v>4</v>
       </c>
-      <c r="G61" s="40">
+      <c r="G61" s="34">
         <v>4</v>
       </c>
-      <c r="H61" s="41">
+      <c r="H61" s="35">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="39">
+      <c r="A62" s="33">
         <v>5</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="40">
+      <c r="C62" s="34">
         <v>1994</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="D62" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E62" s="40" t="s">
+      <c r="E62" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="40">
+      <c r="F62" s="34">
         <v>5</v>
       </c>
-      <c r="G62" s="40">
+      <c r="G62" s="34">
         <v>5</v>
       </c>
-      <c r="H62" s="41">
+      <c r="H62" s="35">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="42">
+      <c r="A63" s="36">
         <v>6</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="43">
+      <c r="C63" s="37">
         <v>1994</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="43">
+      <c r="F63" s="37">
         <v>6</v>
       </c>
-      <c r="G63" s="43">
+      <c r="G63" s="37">
         <v>6</v>
       </c>
-      <c r="H63" s="44">
+      <c r="H63" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="42">
+      <c r="A64" s="36">
         <v>7</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="43">
+      <c r="C64" s="37">
         <v>1998</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F64" s="43">
+      <c r="F64" s="37">
         <v>7</v>
       </c>
-      <c r="G64" s="43">
+      <c r="G64" s="37">
         <v>8</v>
       </c>
-      <c r="H64" s="44">
+      <c r="H64" s="38">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="42">
+      <c r="A65" s="36">
         <v>8</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="43">
+      <c r="C65" s="37">
         <v>1997</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="E65" s="43" t="s">
+      <c r="E65" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F65" s="43">
+      <c r="F65" s="37">
         <v>9</v>
       </c>
-      <c r="G65" s="43">
+      <c r="G65" s="37">
         <v>7</v>
       </c>
-      <c r="H65" s="44">
+      <c r="H65" s="38">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="42">
+      <c r="A66" s="36">
         <v>9</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="43">
+      <c r="C66" s="37">
         <v>1997</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="E66" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="43">
+      <c r="F66" s="37">
         <v>8</v>
       </c>
-      <c r="G66" s="43">
+      <c r="G66" s="37">
         <v>9</v>
       </c>
-      <c r="H66" s="44">
+      <c r="H66" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="45">
+      <c r="A67" s="39">
         <v>10</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="46">
+      <c r="C67" s="40">
         <v>1998</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="E67" s="46" t="s">
+      <c r="E67" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F67" s="46">
+      <c r="F67" s="40">
         <v>10</v>
       </c>
-      <c r="G67" s="46">
+      <c r="G67" s="40">
         <v>10</v>
       </c>
-      <c r="H67" s="47">
+      <c r="H67" s="41">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="31"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="56"/>
     </row>
     <row r="70" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
+      <c r="A70" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="49" t="s">
+      <c r="B70" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="58"/>
-      <c r="E70" s="49" t="s">
+      <c r="D70" s="52"/>
+      <c r="E70" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F70" s="49" t="s">
+      <c r="F70" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G70" s="49" t="s">
+      <c r="G70" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="H70" s="50" t="s">
+      <c r="H70" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="51">
+      <c r="A71" s="45">
         <v>1</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="54">
+      <c r="C71" s="48">
         <v>1999</v>
       </c>
-      <c r="D71" s="54"/>
-      <c r="E71" s="52" t="s">
+      <c r="D71" s="48"/>
+      <c r="E71" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="52">
+      <c r="F71" s="46">
         <v>0</v>
       </c>
-      <c r="G71" s="52">
+      <c r="G71" s="46">
         <v>0</v>
       </c>
-      <c r="H71" s="53">
+      <c r="H71" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="39">
+      <c r="A72" s="33">
         <v>2</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="55">
+      <c r="C72" s="49">
         <v>1999</v>
       </c>
-      <c r="D72" s="55"/>
-      <c r="E72" s="40" t="s">
+      <c r="D72" s="49"/>
+      <c r="E72" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="F72" s="40">
+      <c r="F72" s="34">
         <v>3</v>
       </c>
-      <c r="G72" s="40">
+      <c r="G72" s="34">
         <v>2</v>
       </c>
-      <c r="H72" s="41">
+      <c r="H72" s="35">
         <f t="shared" ref="H72:H86" si="4">G72+F72</f>
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="39">
+      <c r="A73" s="33">
         <v>3</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C73" s="55">
+      <c r="C73" s="49">
         <v>2000</v>
       </c>
-      <c r="D73" s="55"/>
-      <c r="E73" s="40" t="s">
+      <c r="D73" s="49"/>
+      <c r="E73" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="F73" s="40">
+      <c r="F73" s="34">
         <v>2</v>
       </c>
-      <c r="G73" s="40">
+      <c r="G73" s="34">
         <v>3</v>
       </c>
-      <c r="H73" s="41">
+      <c r="H73" s="35">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="39">
+      <c r="A74" s="33">
         <v>4</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="55">
+      <c r="C74" s="49">
         <v>1999</v>
       </c>
-      <c r="D74" s="55"/>
-      <c r="E74" s="40" t="s">
+      <c r="D74" s="49"/>
+      <c r="E74" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F74" s="40">
+      <c r="F74" s="34">
         <v>5</v>
       </c>
-      <c r="G74" s="40">
+      <c r="G74" s="34">
         <v>4</v>
       </c>
-      <c r="H74" s="41">
+      <c r="H74" s="35">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="39">
+      <c r="A75" s="33">
         <v>5</v>
       </c>
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75" s="49">
         <v>2000</v>
       </c>
-      <c r="D75" s="55"/>
-      <c r="E75" s="40" t="s">
+      <c r="D75" s="49"/>
+      <c r="E75" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="40">
+      <c r="F75" s="34">
         <v>4</v>
       </c>
-      <c r="G75" s="40">
+      <c r="G75" s="34">
         <v>5</v>
       </c>
-      <c r="H75" s="41">
+      <c r="H75" s="35">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="39">
+      <c r="A76" s="33">
         <v>6</v>
       </c>
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C76" s="49">
         <v>2000</v>
       </c>
-      <c r="D76" s="55"/>
-      <c r="E76" s="40" t="s">
+      <c r="D76" s="49"/>
+      <c r="E76" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F76" s="40">
+      <c r="F76" s="34">
         <v>6</v>
       </c>
-      <c r="G76" s="40">
+      <c r="G76" s="34">
         <v>6</v>
       </c>
-      <c r="H76" s="41">
+      <c r="H76" s="35">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="39">
+      <c r="A77" s="33">
         <v>7</v>
       </c>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="55">
+      <c r="C77" s="49">
         <v>2000</v>
       </c>
-      <c r="D77" s="55"/>
-      <c r="E77" s="40" t="s">
+      <c r="D77" s="49"/>
+      <c r="E77" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F77" s="40">
+      <c r="F77" s="34">
         <v>7</v>
       </c>
-      <c r="G77" s="40">
+      <c r="G77" s="34">
         <v>7</v>
       </c>
-      <c r="H77" s="41">
+      <c r="H77" s="35">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="39">
+      <c r="A78" s="33">
         <v>8</v>
       </c>
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="55">
+      <c r="C78" s="49">
         <v>2001</v>
       </c>
-      <c r="D78" s="55"/>
-      <c r="E78" s="40" t="s">
+      <c r="D78" s="49"/>
+      <c r="E78" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F78" s="40">
+      <c r="F78" s="34">
         <v>9</v>
       </c>
-      <c r="G78" s="40">
+      <c r="G78" s="34">
         <v>8</v>
       </c>
-      <c r="H78" s="41">
+      <c r="H78" s="35">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="39">
+      <c r="A79" s="33">
         <v>9</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="55">
+      <c r="C79" s="49">
         <v>1999</v>
       </c>
-      <c r="D79" s="55"/>
-      <c r="E79" s="40" t="s">
+      <c r="D79" s="49"/>
+      <c r="E79" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="40">
+      <c r="F79" s="34">
         <v>8</v>
       </c>
-      <c r="G79" s="40">
+      <c r="G79" s="34">
         <v>9</v>
       </c>
-      <c r="H79" s="41">
+      <c r="H79" s="35">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="39">
+      <c r="A80" s="33">
         <v>10</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="55">
+      <c r="C80" s="49">
         <v>1999</v>
       </c>
-      <c r="D80" s="55"/>
-      <c r="E80" s="40" t="s">
+      <c r="D80" s="49"/>
+      <c r="E80" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F80" s="40">
+      <c r="F80" s="34">
         <v>11</v>
       </c>
-      <c r="G80" s="40">
+      <c r="G80" s="34">
         <v>11</v>
       </c>
-      <c r="H80" s="41">
+      <c r="H80" s="35">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="42">
+      <c r="A81" s="36">
         <v>11</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C81" s="56">
+      <c r="C81" s="50">
         <v>2001</v>
       </c>
-      <c r="D81" s="56"/>
-      <c r="E81" s="43" t="s">
+      <c r="D81" s="50"/>
+      <c r="E81" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="F81" s="43">
+      <c r="F81" s="37">
         <v>14</v>
       </c>
-      <c r="G81" s="43">
+      <c r="G81" s="37">
         <v>10</v>
       </c>
-      <c r="H81" s="44">
+      <c r="H81" s="38">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="42">
+      <c r="A82" s="36">
         <v>12</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C82" s="56">
+      <c r="C82" s="50">
         <v>2000</v>
       </c>
-      <c r="D82" s="56"/>
-      <c r="E82" s="43" t="s">
+      <c r="D82" s="50"/>
+      <c r="E82" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F82" s="43">
+      <c r="F82" s="37">
         <v>13</v>
       </c>
-      <c r="G82" s="43">
+      <c r="G82" s="37">
         <v>12</v>
       </c>
-      <c r="H82" s="44">
+      <c r="H82" s="38">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="42">
+      <c r="A83" s="36">
         <v>13</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C83" s="56">
+      <c r="C83" s="50">
         <v>1999</v>
       </c>
-      <c r="D83" s="56"/>
-      <c r="E83" s="43" t="s">
+      <c r="D83" s="50"/>
+      <c r="E83" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="F83" s="43">
+      <c r="F83" s="37">
         <v>12</v>
       </c>
-      <c r="G83" s="43">
+      <c r="G83" s="37">
         <v>14</v>
       </c>
-      <c r="H83" s="44">
+      <c r="H83" s="38">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="42">
+      <c r="A84" s="36">
         <v>14</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="56">
+      <c r="C84" s="50">
         <v>2000</v>
       </c>
-      <c r="D84" s="56"/>
-      <c r="E84" s="43" t="s">
+      <c r="D84" s="50"/>
+      <c r="E84" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="43">
+      <c r="F84" s="37">
         <v>10</v>
       </c>
-      <c r="G84" s="43">
+      <c r="G84" s="37">
         <v>16</v>
       </c>
-      <c r="H84" s="44">
+      <c r="H84" s="38">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="42">
+      <c r="A85" s="36">
         <v>15</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C85" s="56">
+      <c r="C85" s="50">
         <v>2000</v>
       </c>
-      <c r="D85" s="56"/>
-      <c r="E85" s="43" t="s">
+      <c r="D85" s="50"/>
+      <c r="E85" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="F85" s="43">
+      <c r="F85" s="37">
         <v>15</v>
       </c>
-      <c r="G85" s="43">
+      <c r="G85" s="37">
         <v>13</v>
       </c>
-      <c r="H85" s="44">
+      <c r="H85" s="38">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="45">
+      <c r="A86" s="39">
         <v>16</v>
       </c>
-      <c r="B86" s="46" t="s">
+      <c r="B86" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="C86" s="57">
+      <c r="C86" s="51">
         <v>2000</v>
       </c>
-      <c r="D86" s="57"/>
-      <c r="E86" s="46" t="s">
+      <c r="D86" s="51"/>
+      <c r="E86" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="F86" s="46">
+      <c r="F86" s="40">
         <v>16</v>
       </c>
-      <c r="G86" s="46">
+      <c r="G86" s="40">
         <v>15</v>
       </c>
-      <c r="H86" s="47">
+      <c r="H86" s="41">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="31"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="56"/>
     </row>
     <row r="89" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="48" t="s">
+      <c r="A89" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D89" s="58"/>
-      <c r="E89" s="49" t="s">
+      <c r="D89" s="52"/>
+      <c r="E89" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="49" t="s">
+      <c r="F89" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G89" s="49" t="s">
+      <c r="G89" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="H89" s="50" t="s">
+      <c r="H89" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="51">
+      <c r="A90" s="45">
         <v>1</v>
       </c>
-      <c r="B90" s="52" t="s">
+      <c r="B90" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="54">
+      <c r="C90" s="48">
         <v>1991</v>
       </c>
-      <c r="D90" s="54"/>
-      <c r="E90" s="52" t="s">
+      <c r="D90" s="48"/>
+      <c r="E90" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="F90" s="52">
+      <c r="F90" s="46">
         <v>0</v>
       </c>
-      <c r="G90" s="52">
+      <c r="G90" s="46">
         <v>0</v>
       </c>
-      <c r="H90" s="53">
+      <c r="H90" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="39">
+      <c r="A91" s="33">
         <v>2</v>
       </c>
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C91" s="55">
+      <c r="C91" s="49">
         <v>1994</v>
       </c>
-      <c r="D91" s="55"/>
-      <c r="E91" s="40" t="s">
+      <c r="D91" s="49"/>
+      <c r="E91" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F91" s="40">
+      <c r="F91" s="34">
         <v>3</v>
       </c>
-      <c r="G91" s="40">
+      <c r="G91" s="34">
         <v>2</v>
       </c>
-      <c r="H91" s="41">
+      <c r="H91" s="35">
         <f t="shared" ref="H91:H104" si="5">+G91+F91</f>
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="39">
+      <c r="A92" s="33">
         <v>3</v>
       </c>
-      <c r="B92" s="40" t="s">
+      <c r="B92" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="55">
+      <c r="C92" s="49">
         <v>1986</v>
       </c>
-      <c r="D92" s="55"/>
-      <c r="E92" s="40" t="s">
+      <c r="D92" s="49"/>
+      <c r="E92" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="40">
+      <c r="F92" s="34">
         <v>2</v>
       </c>
-      <c r="G92" s="40">
+      <c r="G92" s="34">
         <v>3</v>
       </c>
-      <c r="H92" s="41">
+      <c r="H92" s="35">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="39">
+      <c r="A93" s="33">
         <v>4</v>
       </c>
-      <c r="B93" s="40" t="s">
+      <c r="B93" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C93" s="55">
+      <c r="C93" s="49">
         <v>1992</v>
       </c>
-      <c r="D93" s="55"/>
-      <c r="E93" s="40" t="s">
+      <c r="D93" s="49"/>
+      <c r="E93" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F93" s="40">
+      <c r="F93" s="34">
         <v>4</v>
       </c>
-      <c r="G93" s="40">
+      <c r="G93" s="34">
         <v>4</v>
       </c>
-      <c r="H93" s="41">
+      <c r="H93" s="35">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="39">
+      <c r="A94" s="33">
         <v>5</v>
       </c>
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C94" s="55">
+      <c r="C94" s="49">
         <v>1988</v>
       </c>
-      <c r="D94" s="55"/>
-      <c r="E94" s="40" t="s">
+      <c r="D94" s="49"/>
+      <c r="E94" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F94" s="40">
+      <c r="F94" s="34">
         <v>6</v>
       </c>
-      <c r="G94" s="40">
+      <c r="G94" s="34">
         <v>5</v>
       </c>
-      <c r="H94" s="41">
+      <c r="H94" s="35">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="39">
+      <c r="A95" s="33">
         <v>6</v>
       </c>
-      <c r="B95" s="40" t="s">
+      <c r="B95" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C95" s="55">
+      <c r="C95" s="49">
         <v>1998</v>
       </c>
-      <c r="D95" s="55"/>
-      <c r="E95" s="40" t="s">
+      <c r="D95" s="49"/>
+      <c r="E95" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F95" s="40">
+      <c r="F95" s="34">
         <v>5</v>
       </c>
-      <c r="G95" s="40">
+      <c r="G95" s="34">
         <v>7</v>
       </c>
-      <c r="H95" s="41">
+      <c r="H95" s="35">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="39">
+      <c r="A96" s="33">
         <v>7</v>
       </c>
-      <c r="B96" s="40" t="s">
+      <c r="B96" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C96" s="55">
+      <c r="C96" s="49">
         <v>1992</v>
       </c>
-      <c r="D96" s="55"/>
-      <c r="E96" s="40" t="s">
+      <c r="D96" s="49"/>
+      <c r="E96" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F96" s="40">
+      <c r="F96" s="34">
         <v>7</v>
       </c>
-      <c r="G96" s="40">
+      <c r="G96" s="34">
         <v>6</v>
       </c>
-      <c r="H96" s="41">
+      <c r="H96" s="35">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="39">
+      <c r="A97" s="33">
         <v>8</v>
       </c>
-      <c r="B97" s="40" t="s">
+      <c r="B97" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C97" s="55">
+      <c r="C97" s="49">
         <v>1993</v>
       </c>
-      <c r="D97" s="55"/>
-      <c r="E97" s="40" t="s">
+      <c r="D97" s="49"/>
+      <c r="E97" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="F97" s="40">
+      <c r="F97" s="34">
         <v>9</v>
       </c>
-      <c r="G97" s="40">
+      <c r="G97" s="34">
         <v>8</v>
       </c>
-      <c r="H97" s="41">
+      <c r="H97" s="35">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="42">
+      <c r="A98" s="36">
         <v>9</v>
       </c>
-      <c r="B98" s="43" t="s">
+      <c r="B98" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="C98" s="56">
+      <c r="C98" s="50">
         <v>1988</v>
       </c>
-      <c r="D98" s="56"/>
-      <c r="E98" s="43" t="s">
+      <c r="D98" s="50"/>
+      <c r="E98" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="F98" s="43">
+      <c r="F98" s="37">
         <v>8</v>
       </c>
-      <c r="G98" s="43">
+      <c r="G98" s="37">
         <v>9</v>
       </c>
-      <c r="H98" s="44">
+      <c r="H98" s="38">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="42">
+      <c r="A99" s="36">
         <v>10</v>
       </c>
-      <c r="B99" s="43" t="s">
+      <c r="B99" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C99" s="56">
+      <c r="C99" s="50">
         <v>1998</v>
       </c>
-      <c r="D99" s="56"/>
-      <c r="E99" s="43" t="s">
+      <c r="D99" s="50"/>
+      <c r="E99" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F99" s="43">
+      <c r="F99" s="37">
         <v>11</v>
       </c>
-      <c r="G99" s="43">
+      <c r="G99" s="37">
         <v>10</v>
       </c>
-      <c r="H99" s="44">
+      <c r="H99" s="38">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="42">
+      <c r="A100" s="36">
         <v>11</v>
       </c>
-      <c r="B100" s="43" t="s">
+      <c r="B100" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="56">
+      <c r="C100" s="50">
         <v>1997</v>
       </c>
-      <c r="D100" s="56"/>
-      <c r="E100" s="43" t="s">
+      <c r="D100" s="50"/>
+      <c r="E100" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F100" s="43">
+      <c r="F100" s="37">
         <v>10</v>
       </c>
-      <c r="G100" s="43">
+      <c r="G100" s="37">
         <v>11</v>
       </c>
-      <c r="H100" s="44">
+      <c r="H100" s="38">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="42">
+      <c r="A101" s="36">
         <v>12</v>
       </c>
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C101" s="56">
+      <c r="C101" s="50">
         <v>1996</v>
       </c>
-      <c r="D101" s="56"/>
-      <c r="E101" s="43" t="s">
+      <c r="D101" s="50"/>
+      <c r="E101" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="F101" s="43">
+      <c r="F101" s="37">
         <v>13</v>
       </c>
-      <c r="G101" s="43">
+      <c r="G101" s="37">
         <v>12</v>
       </c>
-      <c r="H101" s="44">
+      <c r="H101" s="38">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="42">
+      <c r="A102" s="36">
         <v>13</v>
       </c>
-      <c r="B102" s="43" t="s">
+      <c r="B102" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="56">
+      <c r="C102" s="50">
         <v>1992</v>
       </c>
-      <c r="D102" s="56"/>
-      <c r="E102" s="43" t="s">
+      <c r="D102" s="50"/>
+      <c r="E102" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F102" s="43">
+      <c r="F102" s="37">
         <v>12</v>
       </c>
-      <c r="G102" s="43">
+      <c r="G102" s="37">
         <v>14</v>
       </c>
-      <c r="H102" s="44">
+      <c r="H102" s="38">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="42">
+      <c r="A103" s="36">
         <v>14</v>
       </c>
-      <c r="B103" s="43" t="s">
+      <c r="B103" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C103" s="56">
+      <c r="C103" s="50">
         <v>1994</v>
       </c>
-      <c r="D103" s="56"/>
-      <c r="E103" s="43" t="s">
+      <c r="D103" s="50"/>
+      <c r="E103" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F103" s="43">
+      <c r="F103" s="37">
         <v>15</v>
       </c>
-      <c r="G103" s="43">
+      <c r="G103" s="37">
         <v>13</v>
       </c>
-      <c r="H103" s="44">
+      <c r="H103" s="38">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="42">
+      <c r="A104" s="36">
         <v>15</v>
       </c>
-      <c r="B104" s="43" t="s">
+      <c r="B104" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C104" s="56">
+      <c r="C104" s="50">
         <v>1998</v>
       </c>
-      <c r="D104" s="56"/>
-      <c r="E104" s="43" t="s">
+      <c r="D104" s="50"/>
+      <c r="E104" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F104" s="43">
+      <c r="F104" s="37">
         <v>14</v>
       </c>
-      <c r="G104" s="43">
+      <c r="G104" s="37">
         <v>15</v>
       </c>
-      <c r="H104" s="44">
+      <c r="H104" s="38">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="45">
+      <c r="A105" s="39">
         <v>16</v>
       </c>
-      <c r="B105" s="46" t="s">
+      <c r="B105" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C105" s="57">
+      <c r="C105" s="51">
         <v>1996</v>
       </c>
-      <c r="D105" s="57"/>
-      <c r="E105" s="46" t="s">
+      <c r="D105" s="51"/>
+      <c r="E105" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F105" s="46">
+      <c r="F105" s="40">
         <v>16</v>
       </c>
-      <c r="G105" s="46">
+      <c r="G105" s="40">
         <v>16</v>
       </c>
-      <c r="H105" s="47">
+      <c r="H105" s="41">
         <f>F105+G105</f>
         <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="35"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="59"/>
     </row>
     <row r="108" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="48" t="s">
+      <c r="A108" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="49" t="s">
+      <c r="B108" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C108" s="49" t="s">
+      <c r="C108" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="D108" s="49" t="s">
+      <c r="D108" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="E108" s="49" t="s">
+      <c r="E108" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F108" s="49" t="s">
+      <c r="F108" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G108" s="49" t="s">
+      <c r="G108" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="H108" s="50" t="s">
+      <c r="H108" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="51">
+      <c r="A109" s="45">
         <v>1</v>
       </c>
-      <c r="B109" s="52" t="s">
+      <c r="B109" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="C109" s="52">
+      <c r="C109" s="46">
         <v>1999</v>
       </c>
-      <c r="D109" s="52" t="s">
+      <c r="D109" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="E109" s="52" t="s">
+      <c r="E109" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F109" s="52">
+      <c r="F109" s="46">
         <v>0</v>
       </c>
-      <c r="G109" s="52">
+      <c r="G109" s="46">
         <v>0</v>
       </c>
-      <c r="H109" s="53">
+      <c r="H109" s="47">
         <f t="shared" ref="H109:H116" si="6">G109+F109</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="39">
+      <c r="A110" s="33">
         <v>2</v>
       </c>
-      <c r="B110" s="40" t="s">
+      <c r="B110" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C110" s="40">
+      <c r="C110" s="34">
         <v>2000</v>
       </c>
-      <c r="D110" s="40" t="s">
+      <c r="D110" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E110" s="40" t="s">
+      <c r="E110" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F110" s="40">
+      <c r="F110" s="34">
         <v>2</v>
       </c>
-      <c r="G110" s="40">
+      <c r="G110" s="34">
         <v>2</v>
       </c>
-      <c r="H110" s="41">
+      <c r="H110" s="35">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="39">
+      <c r="A111" s="33">
         <v>3</v>
       </c>
-      <c r="B111" s="40" t="s">
+      <c r="B111" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C111" s="40">
+      <c r="C111" s="34">
         <v>2001</v>
       </c>
-      <c r="D111" s="40" t="s">
+      <c r="D111" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E111" s="40" t="s">
+      <c r="E111" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="F111" s="40">
+      <c r="F111" s="34">
         <v>4</v>
       </c>
-      <c r="G111" s="40">
+      <c r="G111" s="34">
         <v>3</v>
       </c>
-      <c r="H111" s="41">
+      <c r="H111" s="35">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="39">
+      <c r="A112" s="33">
         <v>4</v>
       </c>
-      <c r="B112" s="40" t="s">
+      <c r="B112" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="C112" s="40">
+      <c r="C112" s="34">
         <v>2001</v>
       </c>
-      <c r="D112" s="40" t="s">
+      <c r="D112" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E112" s="40" t="s">
+      <c r="E112" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F112" s="40">
+      <c r="F112" s="34">
         <v>3</v>
       </c>
-      <c r="G112" s="40">
+      <c r="G112" s="34">
         <v>4</v>
       </c>
-      <c r="H112" s="41">
+      <c r="H112" s="35">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="39">
+      <c r="A113" s="33">
         <v>5</v>
       </c>
-      <c r="B113" s="40" t="s">
+      <c r="B113" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C113" s="40">
+      <c r="C113" s="34">
         <v>2001</v>
       </c>
-      <c r="D113" s="40" t="s">
+      <c r="D113" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E113" s="40" t="s">
+      <c r="E113" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F113" s="40">
+      <c r="F113" s="34">
         <v>6</v>
       </c>
-      <c r="G113" s="40">
+      <c r="G113" s="34">
         <v>5</v>
       </c>
-      <c r="H113" s="41">
+      <c r="H113" s="35">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="42">
+      <c r="A114" s="36">
         <v>6</v>
       </c>
-      <c r="B114" s="43" t="s">
+      <c r="B114" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C114" s="43">
+      <c r="C114" s="37">
         <v>1999</v>
       </c>
-      <c r="D114" s="43" t="s">
+      <c r="D114" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="E114" s="43" t="s">
+      <c r="E114" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F114" s="43">
+      <c r="F114" s="37">
         <v>7</v>
       </c>
-      <c r="G114" s="43">
+      <c r="G114" s="37">
         <v>6</v>
       </c>
-      <c r="H114" s="44">
+      <c r="H114" s="38">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="42">
+      <c r="A115" s="36">
         <v>7</v>
       </c>
-      <c r="B115" s="43" t="s">
+      <c r="B115" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C115" s="43">
+      <c r="C115" s="37">
         <v>2000</v>
       </c>
-      <c r="D115" s="43" t="s">
+      <c r="D115" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="E115" s="43" t="s">
+      <c r="E115" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="F115" s="43">
+      <c r="F115" s="37">
         <v>8</v>
       </c>
-      <c r="G115" s="43">
+      <c r="G115" s="37">
         <v>7</v>
       </c>
-      <c r="H115" s="44">
+      <c r="H115" s="38">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="45">
+      <c r="A116" s="39">
         <v>8</v>
       </c>
-      <c r="B116" s="46" t="s">
+      <c r="B116" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C116" s="46">
+      <c r="C116" s="40">
         <v>2000</v>
       </c>
-      <c r="D116" s="46" t="s">
+      <c r="D116" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="E116" s="46" t="s">
+      <c r="E116" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F116" s="46">
+      <c r="F116" s="40">
         <v>5</v>
       </c>
-      <c r="G116" s="46">
+      <c r="G116" s="40">
         <v>99</v>
       </c>
-      <c r="H116" s="47">
+      <c r="H116" s="41">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="35"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="59"/>
     </row>
     <row r="119" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="48" t="s">
+      <c r="A119" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B119" s="49" t="s">
+      <c r="B119" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C119" s="49" t="s">
+      <c r="C119" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="D119" s="49" t="s">
+      <c r="D119" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="E119" s="49" t="s">
+      <c r="E119" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F119" s="49" t="s">
+      <c r="F119" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G119" s="49" t="s">
+      <c r="G119" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="H119" s="50" t="s">
+      <c r="H119" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="36">
+      <c r="A120" s="30">
         <v>1</v>
       </c>
-      <c r="B120" s="37" t="s">
+      <c r="B120" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C120" s="37">
+      <c r="C120" s="31">
         <v>1998</v>
       </c>
-      <c r="D120" s="37" t="s">
+      <c r="D120" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E120" s="37" t="s">
+      <c r="E120" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F120" s="37">
+      <c r="F120" s="31">
         <v>0</v>
       </c>
-      <c r="G120" s="37">
+      <c r="G120" s="31">
         <v>0</v>
       </c>
-      <c r="H120" s="38">
+      <c r="H120" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="39">
+      <c r="A121" s="33">
         <v>2</v>
       </c>
-      <c r="B121" s="40" t="s">
+      <c r="B121" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C121" s="40">
+      <c r="C121" s="34">
         <v>1996</v>
       </c>
-      <c r="D121" s="40" t="s">
+      <c r="D121" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E121" s="40" t="s">
+      <c r="E121" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F121" s="40">
+      <c r="F121" s="34">
         <v>3</v>
       </c>
-      <c r="G121" s="40">
+      <c r="G121" s="34">
         <v>2</v>
       </c>
-      <c r="H121" s="41">
+      <c r="H121" s="35">
         <f t="shared" ref="H121:H127" si="7">G121+F121</f>
         <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="39">
+      <c r="A122" s="33">
         <v>3</v>
       </c>
-      <c r="B122" s="40" t="s">
+      <c r="B122" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C122" s="40">
+      <c r="C122" s="34">
         <v>1993</v>
       </c>
-      <c r="D122" s="40" t="s">
+      <c r="D122" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E122" s="40" t="s">
+      <c r="E122" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F122" s="40">
+      <c r="F122" s="34">
         <v>2</v>
       </c>
-      <c r="G122" s="40">
+      <c r="G122" s="34">
         <v>4</v>
       </c>
-      <c r="H122" s="41">
+      <c r="H122" s="35">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="39">
+      <c r="A123" s="33">
         <v>4</v>
       </c>
-      <c r="B123" s="40" t="s">
+      <c r="B123" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C123" s="40">
+      <c r="C123" s="34">
         <v>1991</v>
       </c>
-      <c r="D123" s="40" t="s">
+      <c r="D123" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E123" s="40" t="s">
+      <c r="E123" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="F123" s="40">
+      <c r="F123" s="34">
         <v>4</v>
       </c>
-      <c r="G123" s="40">
+      <c r="G123" s="34">
         <v>3</v>
       </c>
-      <c r="H123" s="41">
+      <c r="H123" s="35">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="39">
+      <c r="A124" s="33">
         <v>5</v>
       </c>
-      <c r="B124" s="40" t="s">
+      <c r="B124" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="C124" s="40">
+      <c r="C124" s="34">
         <v>1997</v>
       </c>
-      <c r="D124" s="40" t="s">
+      <c r="D124" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E124" s="40" t="s">
+      <c r="E124" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F124" s="40">
+      <c r="F124" s="34">
         <v>5</v>
       </c>
-      <c r="G124" s="40">
+      <c r="G124" s="34">
         <v>5</v>
       </c>
-      <c r="H124" s="41">
+      <c r="H124" s="35">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="39">
+      <c r="A125" s="33">
         <v>6</v>
       </c>
-      <c r="B125" s="40" t="s">
+      <c r="B125" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="40">
+      <c r="C125" s="34">
         <v>1998</v>
       </c>
-      <c r="D125" s="40" t="s">
+      <c r="D125" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E125" s="40" t="s">
+      <c r="E125" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F125" s="40">
+      <c r="F125" s="34">
         <v>6</v>
       </c>
-      <c r="G125" s="40">
+      <c r="G125" s="34">
         <v>6</v>
       </c>
-      <c r="H125" s="41">
+      <c r="H125" s="35">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="42">
+      <c r="A126" s="36">
         <v>7</v>
       </c>
-      <c r="B126" s="43" t="s">
+      <c r="B126" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C126" s="43">
+      <c r="C126" s="37">
         <v>1997</v>
       </c>
-      <c r="D126" s="43" t="s">
+      <c r="D126" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="E126" s="43" t="s">
+      <c r="E126" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F126" s="43">
+      <c r="F126" s="37">
         <v>7</v>
       </c>
-      <c r="G126" s="43">
+      <c r="G126" s="37">
         <v>7</v>
       </c>
-      <c r="H126" s="44">
+      <c r="H126" s="38">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="45">
+      <c r="A127" s="39">
         <v>8</v>
       </c>
-      <c r="B127" s="46" t="s">
+      <c r="B127" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C127" s="46">
+      <c r="C127" s="40">
         <v>1995</v>
       </c>
-      <c r="D127" s="46" t="s">
+      <c r="D127" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="E127" s="46" t="s">
+      <c r="E127" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F127" s="46">
+      <c r="F127" s="40">
         <v>8</v>
       </c>
-      <c r="G127" s="46">
+      <c r="G127" s="40">
         <v>8</v>
       </c>
-      <c r="H127" s="47">
+      <c r="H127" s="41">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>

--- a/franceelite/classement.xlsx
+++ b/franceelite/classement.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="36740" windowHeight="24000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="24000"/>
   </bookViews>
   <sheets>
     <sheet name="1 000m" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF509ED2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,6 +1199,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF509ED2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1506,18 +1511,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.3984375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="33" style="29" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="28.796875" style="29" customWidth="1"/>
-    <col min="6" max="8" width="10.59765625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="37.3984375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="35.3984375" style="29" customWidth="1"/>
+    <col min="6" max="8" width="13.3984375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">

--- a/franceelite/classement.xlsx
+++ b/franceelite/classement.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="169">
   <si>
     <t>HENOT HECTOR</t>
   </si>
@@ -274,18 +274,6 @@
     <t>CKC SAINT MIHIEL</t>
   </si>
   <si>
-    <t>K1HJ 1000 m</t>
-  </si>
-  <si>
-    <t>K1HS 1000 m</t>
-  </si>
-  <si>
-    <t>C1HJ 1000 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C1HS 1000 m</t>
-  </si>
-  <si>
     <t>Place</t>
   </si>
   <si>
@@ -527,6 +515,30 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>K1 Homme Senior 1000m</t>
+  </si>
+  <si>
+    <t>K1 Homme Junior 1000m</t>
+  </si>
+  <si>
+    <t>C1 Homme Junior 1000m</t>
+  </si>
+  <si>
+    <t>C1 Homme Senior 1000m</t>
+  </si>
+  <si>
+    <t>K1 Dame Junior 500m</t>
+  </si>
+  <si>
+    <t>K1 Dame Senior 500m</t>
+  </si>
+  <si>
+    <t>C1 Dame Junior 500m</t>
+  </si>
+  <si>
+    <t>C1 Dame Senior 500m</t>
   </si>
 </sst>
 </file>
@@ -1511,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1527,7 +1539,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -1539,26 +1551,26 @@
     </row>
     <row r="2" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -1964,7 +1976,7 @@
     <row r="19" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="54" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
@@ -1976,26 +1988,26 @@
     </row>
     <row r="21" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G21" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -2376,7 +2388,7 @@
     <row r="37" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="57" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
@@ -2388,28 +2400,28 @@
     </row>
     <row r="39" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="H39" s="44" t="s">
         <v>85</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -2423,7 +2435,7 @@
         <v>1999</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>19</v>
@@ -2450,7 +2462,7 @@
         <v>1999</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E41" s="34" t="s">
         <v>50</v>
@@ -2477,7 +2489,7 @@
         <v>1999</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E42" s="34" t="s">
         <v>50</v>
@@ -2504,7 +2516,7 @@
         <v>2000</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E43" s="34" t="s">
         <v>3</v>
@@ -2531,7 +2543,7 @@
         <v>1999</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E44" s="34" t="s">
         <v>19</v>
@@ -2558,7 +2570,7 @@
         <v>2000</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E45" s="34" t="s">
         <v>50</v>
@@ -2585,7 +2597,7 @@
         <v>1999</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E46" s="37" t="s">
         <v>21</v>
@@ -2612,7 +2624,7 @@
         <v>2000</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E47" s="37" t="s">
         <v>19</v>
@@ -2639,7 +2651,7 @@
         <v>1999</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E48" s="37" t="s">
         <v>60</v>
@@ -2666,7 +2678,7 @@
         <v>1999</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E49" s="37" t="s">
         <v>57</v>
@@ -2693,7 +2705,7 @@
         <v>1999</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E50" s="37" t="s">
         <v>50</v>
@@ -2720,7 +2732,7 @@
         <v>2001</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E51" s="37" t="s">
         <v>21</v>
@@ -2747,7 +2759,7 @@
         <v>2000</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E52" s="37" t="s">
         <v>19</v>
@@ -2774,7 +2786,7 @@
         <v>1999</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E53" s="37" t="s">
         <v>21</v>
@@ -2801,7 +2813,7 @@
         <v>2001</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E54" s="40" t="s">
         <v>17</v>
@@ -2820,7 +2832,7 @@
     <row r="55" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="57" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="B56" s="58"/>
       <c r="C56" s="58"/>
@@ -2832,28 +2844,28 @@
     </row>
     <row r="57" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="H57" s="44" t="s">
         <v>85</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="E57" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="H57" s="44" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -2867,7 +2879,7 @@
         <v>1980</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E58" s="31" t="s">
         <v>28</v>
@@ -2894,7 +2906,7 @@
         <v>1991</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E59" s="34" t="s">
         <v>19</v>
@@ -2921,7 +2933,7 @@
         <v>1991</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E60" s="34" t="s">
         <v>19</v>
@@ -2948,7 +2960,7 @@
         <v>1996</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E61" s="34" t="s">
         <v>19</v>
@@ -2975,7 +2987,7 @@
         <v>1994</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E62" s="34" t="s">
         <v>71</v>
@@ -3002,7 +3014,7 @@
         <v>1994</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E63" s="37" t="s">
         <v>45</v>
@@ -3029,7 +3041,7 @@
         <v>1998</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E64" s="37" t="s">
         <v>74</v>
@@ -3056,7 +3068,7 @@
         <v>1997</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E65" s="37" t="s">
         <v>77</v>
@@ -3083,7 +3095,7 @@
         <v>1997</v>
       </c>
       <c r="D66" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E66" s="37" t="s">
         <v>19</v>
@@ -3110,7 +3122,7 @@
         <v>1998</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E67" s="40" t="s">
         <v>79</v>
@@ -3129,7 +3141,7 @@
     <row r="68" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="54" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
@@ -3141,26 +3153,26 @@
     </row>
     <row r="70" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C70" s="52" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D70" s="52"/>
       <c r="E70" s="43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G70" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H70" s="44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -3168,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C71" s="48">
         <v>1999</v>
@@ -3192,14 +3204,14 @@
         <v>2</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C72" s="49">
         <v>1999</v>
       </c>
       <c r="D72" s="49"/>
       <c r="E72" s="34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F72" s="34">
         <v>3</v>
@@ -3217,14 +3229,14 @@
         <v>3</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C73" s="49">
         <v>2000</v>
       </c>
       <c r="D73" s="49"/>
       <c r="E73" s="34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F73" s="34">
         <v>2</v>
@@ -3242,14 +3254,14 @@
         <v>4</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C74" s="49">
         <v>1999</v>
       </c>
       <c r="D74" s="49"/>
       <c r="E74" s="34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F74" s="34">
         <v>5</v>
@@ -3267,7 +3279,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C75" s="49">
         <v>2000</v>
@@ -3292,7 +3304,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C76" s="49">
         <v>2000</v>
@@ -3317,14 +3329,14 @@
         <v>7</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C77" s="49">
         <v>2000</v>
       </c>
       <c r="D77" s="49"/>
       <c r="E77" s="34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F77" s="34">
         <v>7</v>
@@ -3342,14 +3354,14 @@
         <v>8</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C78" s="49">
         <v>2001</v>
       </c>
       <c r="D78" s="49"/>
       <c r="E78" s="34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F78" s="34">
         <v>9</v>
@@ -3367,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C79" s="49">
         <v>1999</v>
@@ -3392,14 +3404,14 @@
         <v>10</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C80" s="49">
         <v>1999</v>
       </c>
       <c r="D80" s="49"/>
       <c r="E80" s="34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F80" s="34">
         <v>11</v>
@@ -3417,14 +3429,14 @@
         <v>11</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C81" s="50">
         <v>2001</v>
       </c>
       <c r="D81" s="50"/>
       <c r="E81" s="37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F81" s="37">
         <v>14</v>
@@ -3442,7 +3454,7 @@
         <v>12</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C82" s="50">
         <v>2000</v>
@@ -3467,14 +3479,14 @@
         <v>13</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C83" s="50">
         <v>1999</v>
       </c>
       <c r="D83" s="50"/>
       <c r="E83" s="37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F83" s="37">
         <v>12</v>
@@ -3492,7 +3504,7 @@
         <v>14</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C84" s="50">
         <v>2000</v>
@@ -3517,14 +3529,14 @@
         <v>15</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C85" s="50">
         <v>2000</v>
       </c>
       <c r="D85" s="50"/>
       <c r="E85" s="37" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F85" s="37">
         <v>15</v>
@@ -3542,7 +3554,7 @@
         <v>16</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C86" s="51">
         <v>2000</v>
@@ -3565,7 +3577,7 @@
     <row r="87" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="54" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="B88" s="55"/>
       <c r="C88" s="55"/>
@@ -3577,26 +3589,26 @@
     </row>
     <row r="89" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D89" s="52"/>
       <c r="E89" s="43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F89" s="43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G89" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H89" s="44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -3604,14 +3616,14 @@
         <v>1</v>
       </c>
       <c r="B90" s="46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C90" s="48">
         <v>1991</v>
       </c>
       <c r="D90" s="48"/>
       <c r="E90" s="46" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F90" s="46">
         <v>0</v>
@@ -3628,14 +3640,14 @@
         <v>2</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C91" s="49">
         <v>1994</v>
       </c>
       <c r="D91" s="49"/>
       <c r="E91" s="34" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F91" s="34">
         <v>3</v>
@@ -3653,7 +3665,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C92" s="49">
         <v>1986</v>
@@ -3678,7 +3690,7 @@
         <v>4</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C93" s="49">
         <v>1992</v>
@@ -3703,14 +3715,14 @@
         <v>5</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C94" s="49">
         <v>1988</v>
       </c>
       <c r="D94" s="49"/>
       <c r="E94" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F94" s="34">
         <v>6</v>
@@ -3728,7 +3740,7 @@
         <v>6</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C95" s="49">
         <v>1998</v>
@@ -3753,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C96" s="49">
         <v>1992</v>
@@ -3778,14 +3790,14 @@
         <v>8</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C97" s="49">
         <v>1993</v>
       </c>
       <c r="D97" s="49"/>
       <c r="E97" s="34" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F97" s="34">
         <v>9</v>
@@ -3803,14 +3815,14 @@
         <v>9</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C98" s="50">
         <v>1988</v>
       </c>
       <c r="D98" s="50"/>
       <c r="E98" s="37" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F98" s="37">
         <v>8</v>
@@ -3828,14 +3840,14 @@
         <v>10</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C99" s="50">
         <v>1998</v>
       </c>
       <c r="D99" s="50"/>
       <c r="E99" s="37" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F99" s="37">
         <v>11</v>
@@ -3853,14 +3865,14 @@
         <v>11</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C100" s="50">
         <v>1997</v>
       </c>
       <c r="D100" s="50"/>
       <c r="E100" s="37" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F100" s="37">
         <v>10</v>
@@ -3878,14 +3890,14 @@
         <v>12</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C101" s="50">
         <v>1996</v>
       </c>
       <c r="D101" s="50"/>
       <c r="E101" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F101" s="37">
         <v>13</v>
@@ -3903,7 +3915,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C102" s="50">
         <v>1992</v>
@@ -3928,7 +3940,7 @@
         <v>14</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C103" s="50">
         <v>1994</v>
@@ -3953,14 +3965,14 @@
         <v>15</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C104" s="50">
         <v>1998</v>
       </c>
       <c r="D104" s="50"/>
       <c r="E104" s="37" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F104" s="37">
         <v>14</v>
@@ -3978,14 +3990,14 @@
         <v>16</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C105" s="51">
         <v>1996</v>
       </c>
       <c r="D105" s="51"/>
       <c r="E105" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F105" s="40">
         <v>16</v>
@@ -4001,7 +4013,7 @@
     <row r="106" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="57" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="B107" s="58"/>
       <c r="C107" s="58"/>
@@ -4013,28 +4025,28 @@
     </row>
     <row r="108" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D108" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E108" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F108" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G108" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="43" t="s">
+      <c r="H108" s="44" t="s">
         <v>85</v>
-      </c>
-      <c r="C108" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D108" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E108" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F108" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G108" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="H108" s="44" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4042,13 +4054,13 @@
         <v>1</v>
       </c>
       <c r="B109" s="46" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C109" s="46">
         <v>1999</v>
       </c>
       <c r="D109" s="46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E109" s="46" t="s">
         <v>19</v>
@@ -4069,16 +4081,16 @@
         <v>2</v>
       </c>
       <c r="B110" s="34" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C110" s="34">
         <v>2000</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F110" s="34">
         <v>2</v>
@@ -4096,13 +4108,13 @@
         <v>3</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C111" s="34">
         <v>2001</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E111" s="34" t="s">
         <v>74</v>
@@ -4123,13 +4135,13 @@
         <v>4</v>
       </c>
       <c r="B112" s="34" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C112" s="34">
         <v>2001</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E112" s="34" t="s">
         <v>19</v>
@@ -4150,13 +4162,13 @@
         <v>5</v>
       </c>
       <c r="B113" s="34" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C113" s="34">
         <v>2001</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E113" s="34" t="s">
         <v>19</v>
@@ -4177,13 +4189,13 @@
         <v>6</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C114" s="37">
         <v>1999</v>
       </c>
       <c r="D114" s="37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E114" s="37" t="s">
         <v>50</v>
@@ -4204,16 +4216,16 @@
         <v>7</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C115" s="37">
         <v>2000</v>
       </c>
       <c r="D115" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E115" s="37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F115" s="37">
         <v>8</v>
@@ -4231,13 +4243,13 @@
         <v>8</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C116" s="40">
         <v>2000</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E116" s="40" t="s">
         <v>19</v>
@@ -4256,7 +4268,7 @@
     <row r="117" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="57" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B118" s="58"/>
       <c r="C118" s="58"/>
@@ -4268,28 +4280,28 @@
     </row>
     <row r="119" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B119" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D119" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E119" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F119" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G119" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B119" s="43" t="s">
+      <c r="H119" s="44" t="s">
         <v>85</v>
-      </c>
-      <c r="C119" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D119" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E119" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F119" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G119" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="H119" s="44" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4297,13 +4309,13 @@
         <v>1</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C120" s="31">
         <v>1998</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E120" s="31" t="s">
         <v>21</v>
@@ -4323,13 +4335,13 @@
         <v>2</v>
       </c>
       <c r="B121" s="34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C121" s="34">
         <v>1996</v>
       </c>
       <c r="D121" s="34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E121" s="34" t="s">
         <v>19</v>
@@ -4350,13 +4362,13 @@
         <v>3</v>
       </c>
       <c r="B122" s="34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C122" s="34">
         <v>1993</v>
       </c>
       <c r="D122" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E122" s="34" t="s">
         <v>19</v>
@@ -4377,16 +4389,16 @@
         <v>4</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C123" s="34">
         <v>1991</v>
       </c>
       <c r="D123" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E123" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F123" s="34">
         <v>4</v>
@@ -4404,13 +4416,13 @@
         <v>5</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C124" s="34">
         <v>1997</v>
       </c>
       <c r="D124" s="34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E124" s="34" t="s">
         <v>50</v>
@@ -4431,16 +4443,16 @@
         <v>6</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C125" s="34">
         <v>1998</v>
       </c>
       <c r="D125" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E125" s="34" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F125" s="34">
         <v>6</v>
@@ -4458,13 +4470,13 @@
         <v>7</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C126" s="37">
         <v>1997</v>
       </c>
       <c r="D126" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E126" s="37" t="s">
         <v>77</v>
@@ -4485,13 +4497,13 @@
         <v>8</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C127" s="40">
         <v>1995</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E127" s="40" t="s">
         <v>45</v>
@@ -4619,7 +4631,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -4631,26 +4643,26 @@
     </row>
     <row r="4" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -4658,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D5" s="15">
         <v>1999</v>
@@ -4682,14 +4694,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D6" s="19">
         <v>1999</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" s="19">
         <v>3</v>
@@ -4707,14 +4719,14 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D7" s="19">
         <v>2000</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G7" s="19">
         <v>2</v>
@@ -4732,14 +4744,14 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D8" s="4">
         <v>1999</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
@@ -4757,7 +4769,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D9" s="4">
         <v>2000</v>
@@ -4782,7 +4794,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="4">
         <v>2000</v>
@@ -4807,14 +4819,14 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" s="4">
         <v>2000</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G11" s="4">
         <v>7</v>
@@ -4832,14 +4844,14 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4">
         <v>2001</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G12" s="4">
         <v>9</v>
@@ -4857,7 +4869,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D13" s="4">
         <v>1999</v>
@@ -4882,14 +4894,14 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14" s="4">
         <v>1999</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G14" s="4">
         <v>11</v>
@@ -4907,14 +4919,14 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D15" s="4">
         <v>2001</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G15" s="4">
         <v>14</v>
@@ -4932,7 +4944,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D16" s="4">
         <v>2000</v>
@@ -4957,14 +4969,14 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D17" s="4">
         <v>1999</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G17" s="4">
         <v>12</v>
@@ -4982,7 +4994,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D18" s="4">
         <v>2000</v>
@@ -5007,14 +5019,14 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D19" s="4">
         <v>2000</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G19" s="4">
         <v>15</v>
@@ -5032,7 +5044,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" s="9">
         <v>2000</v>
@@ -5055,7 +5067,7 @@
     <row r="21" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -5067,26 +5079,26 @@
     </row>
     <row r="23" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -5094,14 +5106,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D24" s="15">
         <v>1991</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
@@ -5118,14 +5130,14 @@
         <v>2</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D25" s="19">
         <v>1994</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G25" s="19">
         <v>3</v>
@@ -5143,7 +5155,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D26" s="19">
         <v>1986</v>
@@ -5168,7 +5180,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D27" s="4">
         <v>1992</v>
@@ -5193,14 +5205,14 @@
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D28" s="4">
         <v>1988</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G28" s="4">
         <v>6</v>
@@ -5218,7 +5230,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D29" s="4">
         <v>1998</v>
@@ -5243,7 +5255,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D30" s="4">
         <v>1992</v>
@@ -5268,14 +5280,14 @@
         <v>8</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D31" s="4">
         <v>1993</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G31" s="4">
         <v>9</v>
@@ -5293,14 +5305,14 @@
         <v>9</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D32" s="4">
         <v>1988</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G32" s="4">
         <v>8</v>
@@ -5318,14 +5330,14 @@
         <v>10</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D33" s="4">
         <v>1998</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G33" s="4">
         <v>11</v>
@@ -5343,14 +5355,14 @@
         <v>11</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D34" s="4">
         <v>1997</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G34" s="4">
         <v>10</v>
@@ -5368,14 +5380,14 @@
         <v>12</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D35" s="4">
         <v>1996</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G35" s="4">
         <v>13</v>
@@ -5393,7 +5405,7 @@
         <v>13</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D36" s="4">
         <v>1992</v>
@@ -5418,7 +5430,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D37" s="4">
         <v>1994</v>
@@ -5443,14 +5455,14 @@
         <v>15</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D38" s="4">
         <v>1998</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G38" s="4">
         <v>14</v>
@@ -5468,14 +5480,14 @@
         <v>16</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D39" s="9">
         <v>1996</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G39" s="9">
         <v>16</v>
@@ -5496,7 +5508,7 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -5508,28 +5520,28 @@
     </row>
     <row r="42" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="I42" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
@@ -5537,13 +5549,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D43" s="15">
         <v>1999</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>19</v>
@@ -5564,16 +5576,16 @@
         <v>2</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D44" s="19">
         <v>2000</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G44" s="19">
         <v>2</v>
@@ -5591,13 +5603,13 @@
         <v>3</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D45" s="19">
         <v>2001</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>74</v>
@@ -5618,13 +5630,13 @@
         <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D46" s="4">
         <v>2001</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>19</v>
@@ -5645,13 +5657,13 @@
         <v>5</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D47" s="4">
         <v>2001</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>19</v>
@@ -5672,13 +5684,13 @@
         <v>6</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D48" s="4">
         <v>1999</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>50</v>
@@ -5699,16 +5711,16 @@
         <v>7</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D49" s="4">
         <v>2000</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G49" s="4">
         <v>8</v>
@@ -5726,13 +5738,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D50" s="9">
         <v>2000</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>19</v>
@@ -5751,7 +5763,7 @@
     <row r="51" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -5763,28 +5775,28 @@
     </row>
     <row r="53" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="I53" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
@@ -5792,13 +5804,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D54" s="15">
         <v>1998</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F54" s="16" t="s">
         <v>21</v>
@@ -5818,13 +5830,13 @@
         <v>2</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D55" s="19">
         <v>1996</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F55" s="20" t="s">
         <v>19</v>
@@ -5845,13 +5857,13 @@
         <v>3</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D56" s="19">
         <v>1993</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F56" s="20" t="s">
         <v>19</v>
@@ -5872,16 +5884,16 @@
         <v>4</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D57" s="4">
         <v>1991</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G57" s="4">
         <v>4</v>
@@ -5899,13 +5911,13 @@
         <v>5</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D58" s="4">
         <v>1997</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>50</v>
@@ -5926,16 +5938,16 @@
         <v>6</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D59" s="4">
         <v>1998</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G59" s="4">
         <v>6</v>
@@ -5953,13 +5965,13 @@
         <v>7</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D60" s="4">
         <v>1997</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>77</v>
@@ -5980,13 +5992,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D61" s="9">
         <v>1995</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>45</v>

--- a/franceelite/classement.xlsx
+++ b/franceelite/classement.xlsx
@@ -1523,18 +1523,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.3984375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="37.3984375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="35.3984375" style="29" customWidth="1"/>
     <col min="3" max="3" width="11.796875" style="29" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" style="29" customWidth="1"/>
-    <col min="5" max="5" width="35.3984375" style="29" customWidth="1"/>
-    <col min="6" max="8" width="13.3984375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="33.796875" style="29" customWidth="1"/>
+    <col min="6" max="8" width="13" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
